--- a/Examples/Dictionary/Calc/Exp111_RatingsScalesResults.xlsx
+++ b/Examples/Dictionary/Calc/Exp111_RatingsScalesResults.xlsx
@@ -646,6 +646,27 @@
         <color rgb="fff2463a"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H5">
     <cfRule type="dataBar" priority="2">
@@ -669,6 +690,27 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G13">
     <cfRule type="dataBar" priority="1">
@@ -692,6 +734,27 @@
         <color rgb="fff2463a"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H13">
     <cfRule type="dataBar" priority="2">
@@ -715,6 +778,27 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G21">
     <cfRule type="dataBar" priority="1">
@@ -738,6 +822,27 @@
         <color rgb="fff2463a"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H21">
     <cfRule type="dataBar" priority="2">
@@ -755,6 +860,27 @@
       </dataBar>
     </cfRule>
     <cfRule type="dataBar" priority="2">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
